--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 11.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 11.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -956,7 +956,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1002,7 +1002,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1324,7 +1324,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1347,7 +1347,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1370,7 +1370,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1554,7 +1554,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1669,7 +1669,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1830,7 +1830,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1853,7 +1853,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2497,7 +2497,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2520,7 +2520,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2589,7 +2589,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2612,7 +2612,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2662,7 +2662,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2708,7 +2708,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2754,7 +2754,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2804,7 +2804,7 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2827,7 +2827,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2896,7 +2896,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2919,7 +2919,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2988,7 +2988,7 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3034,7 +3034,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3057,7 +3057,7 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3080,7 +3080,7 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3103,7 +3103,7 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3126,7 +3126,7 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3402,7 +3402,7 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3425,7 +3425,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3448,7 +3448,7 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3494,7 +3494,7 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3563,7 +3563,7 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3747,7 +3747,7 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -3770,7 +3770,7 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4092,7 +4092,7 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4115,7 +4115,7 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4138,7 +4138,7 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4874,7 +4874,7 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -4897,7 +4897,7 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -4920,7 +4920,7 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -4943,7 +4943,7 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
